--- a/output/data/df_osf.xlsx
+++ b/output/data/df_osf.xlsx
@@ -423,67 +423,67 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ECG</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ICG</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EMG</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Respiration</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>EEG</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Accelerometer</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ECG</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>EEG</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>EMG</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Gyroscope</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Gyroscope</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ICG</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Skin temperature</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Other signals</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>PPG</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Respiration</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Skin temperature</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -686,92 +686,92 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>1; reflection; 64; wrist</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1; dry electrode; 4; wrist</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>1; 3 axes; 32; wrist</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1; dry electrode; 4; wrist</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1; 0.2(36-39); 4; wrist</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>0; If other signals are available, make available column yes and the list of signals goes here as text</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1; reflection; 64; wrist</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1; 0.2(36-39); 4; wrist</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1; 1; 30</t>
-        </is>
-      </c>
-      <c r="Z2">
-        <v>48</v>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>48; hours</t>
+        </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>device charger</t>
         </is>
       </c>
-      <c r="AB2">
-        <v>120</v>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>120; minutes</t>
+        </is>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>-1; no display on the device, data can be viewed via a mobile application</t>
-        </is>
+      <c r="AD2">
+        <v>1</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -798,27 +798,27 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1; E4 manager; Empatica Connect web dashboard;</t>
+          <t>E4 manager; Empatica Connect web dashboard;</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1; E4 Realtime</t>
+          <t>E4 Realtime</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1; built-in storage</t>
+          <t>built-in storage</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>60; 60</t>
+          <t>60; hours; 60; mb</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1; USA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="AO2">
@@ -920,92 +920,92 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>1; transmission &amp; reflection; green, red and infrared; 26-208; wrist</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1; dry electrode; 1-4; wrist</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>1; 3 axes; 26-208; wrist</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1; dry electrode; 1-4; wrist</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>1; 3 axes; 26-208; wrist</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1; transmission &amp; reflection; green, red and infrared; 26-208; wrist</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1; 0.1(30-45); 1-4; wrist</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1; 0.1(30-45); 1-4; wrist</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1; 1; 30</t>
-        </is>
-      </c>
-      <c r="Z3">
-        <v>48</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>48; hours</t>
+        </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>device charger</t>
         </is>
       </c>
-      <c r="AB3">
-        <v>90</v>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>90; minutes</t>
+        </is>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>-1; device displays only the time and recording status, data can be viewed via a mobile application</t>
-        </is>
+      <c r="AD3">
+        <v>1</v>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -1032,22 +1032,17 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1; Care app; Care web portal</t>
+          <t>Care app; Care web portal</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1; built-in storage</t>
+          <t>built-in storage</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>24; 128</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>24; hours; 128; mb</t>
         </is>
       </c>
       <c r="AO3">

--- a/output/data/df_osf.xlsx
+++ b/output/data/df_osf.xlsx
@@ -423,67 +423,67 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Accelerometer</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ECG</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>EEG</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>EMG</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Gyroscope</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ICG</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Other signals</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>PPG</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ECG</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ICG</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>EMG</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Respiration</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>EEG</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Accelerometer</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Gyroscope</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Skin temperature</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Other signals</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -686,92 +686,92 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>1; 3 axes; 32; wrist</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1; dry electrode; 4; wrist</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0; If other signals are available, make available column yes and the list of signals goes here as text</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>1; reflection; 64; wrist</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1; dry electrode; 4; wrist</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1; 3 axes; 32; wrist</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>1; 0.2(36-39); 4; wrist</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0; If other signals are available, make available column yes and the list of signals goes here as text</t>
-        </is>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>48; hours</t>
-        </is>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1; 1; 30</t>
+        </is>
+      </c>
+      <c r="Z2">
+        <v>48</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>device charger</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>120; minutes</t>
-        </is>
+      <c r="AB2">
+        <v>120</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2">
-        <v>1</v>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-1; no display on the device, data can be viewed via a mobile application</t>
+        </is>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -798,27 +798,27 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>E4 manager; Empatica Connect web dashboard;</t>
+          <t>1; E4 manager; Empatica Connect web dashboard;</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>E4 Realtime</t>
+          <t>1; E4 Realtime</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>built-in storage</t>
+          <t>1; built-in storage</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>60; hours; 60; mb</t>
+          <t>60; 60</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>1; USA</t>
         </is>
       </c>
       <c r="AO2">
@@ -920,92 +920,92 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>1; 3 axes; 26-208; wrist</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1; dry electrode; 1-4; wrist</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1; 3 axes; 26-208; wrist</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>1; transmission &amp; reflection; green, red and infrared; 26-208; wrist</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1; dry electrode; 1-4; wrist</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1; 3 axes; 26-208; wrist</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1; 3 axes; 26-208; wrist</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>1; 0.1(30-45); 1-4; wrist</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>48; hours</t>
-        </is>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1; 1; 30</t>
+        </is>
+      </c>
+      <c r="Z3">
+        <v>48</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>device charger</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>90; minutes</t>
-        </is>
+      <c r="AB3">
+        <v>90</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3">
-        <v>1</v>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-1; device displays only the time and recording status, data can be viewed via a mobile application</t>
+        </is>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -1032,17 +1032,22 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>Care app; Care web portal</t>
+          <t>1; Care app; Care web portal</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>built-in storage</t>
+          <t>1; built-in storage</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>24; hours; 128; mb</t>
+          <t>24; 128</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="AO3">
